--- a/src/NFLYearlyTiers/2025/qb_ratings_2025.xlsx
+++ b/src/NFLYearlyTiers/2025/qb_ratings_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\CascadeProjects\fantasy-football-rankings\src\NFLYearlyTiers\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D771BA-EEB7-4505-A0AC-227CBEFE3172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96484F2A-EEEA-43B9-9EDE-2127E693F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{11273EC8-EA02-4DDC-A392-411D11623D6A}"/>
   </bookViews>
@@ -623,8 +623,8 @@
         <v>100</v>
       </c>
       <c r="I2" s="2">
-        <f>D2*10+E2*5+F2-G2*3-400</f>
-        <v>550</v>
+        <f>D2*10+E2*5+F2-G2*3</f>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -655,8 +655,8 @@
         <v>100</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I27" si="2">D3*10+E3*5+F3-G3*3-400</f>
-        <v>360</v>
+        <f t="shared" ref="I3:I27" si="2">D3*10+E3*5+F3-G3*3</f>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>-40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>-105</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>-130</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>-210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>-260</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>-300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>-340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>-340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>-355</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>-380</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>-540</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>-540</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>-540</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>-580</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>-580</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>-600</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>-620</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>-660</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>-660</v>
+        <v>-260</v>
       </c>
     </row>
   </sheetData>
